--- a/XYZ.xlsx
+++ b/XYZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9AF5FF-2BF1-4104-AE9F-A13757C2D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E41E14F-9576-45C8-8E2D-3A0471DEFAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{239127C3-38D4-4793-AC1A-38F80CB0A934}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{239127C3-38D4-4793-AC1A-38F80CB0A934}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +102,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,11 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -473,111 +479,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F159DB-7F66-4440-B5E4-6E179025FE48}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>53.86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <f>559.431+60.049</f>
         <v>619.48</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <f>+J2*J3</f>
         <v>33365.192799999997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <f>8075.247+403.426</f>
         <v>8478.6730000000007</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <f>999.497+5105.939</f>
         <v>6105.4360000000006</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <f>+J4-J5+J6</f>
         <v>30991.955799999996</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
